--- a/biology/Histoire de la zoologie et de la botanique/Edward_Daniel_Clarke/Edward_Daniel_Clarke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Daniel_Clarke/Edward_Daniel_Clarke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Daniel Clarke (Sussex de l'Est, 5 juin 1769 - Londres, 9 mars 1822) est un minéralogiste et archéologue anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mariage en 1806, 5 fils et 2 filles.
 Petit-fils de l'antiquaire William Clarke et fils du voyageur et auteur le révérend Edward Clarke (aumônier de l'ambassadeur à Madrid, puis aumônier et secrétaire général des gouverneurs de Minorque).
@@ -543,7 +557,9 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'abord élève d'un ecclésiastique de Vickfield, puis à la Grammar school de Tonbridge en 1779. Entra au Jesus College à Cambridge en 1786 en tant que chapel clerk. Étudia la poésie britannique, l'histoire, la numismatique et les sciences naturelles, dont la minéralogie. Se fit remarquer lorsqu'il construisit un ballon transportant un chaton.
 1790 : Baccalauréat en arts
@@ -575,7 +591,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut longtemps précepteur de jeunes nobles qui voyageaient pour parfaire leur éducation, le plus souvent dans le cadre de leur Grand Tour. Il fut donc longtemps ce qu'il était coutume d'appeler un "montreur d'ours".
 1790 Précepteur de l'Hon. Henry Tufton, tour de Grande-Bretagne avec lui. Il débuta alors une collection de minéraux. Écriture d'un premier journal de voyage
@@ -614,7 +632,9 @@
           <t>Voyage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Départ : 20 mai 1799 pour la Scandinavie avec Thomas Malthus (1766-1834) (l'auteur de l'essai sur la population) et William Otter, un des amis de Clake, et son futur biographe, ainsi que le futur évêque de Chichester. Malthuss et Otter ne purent suivre le rythme et s'arrêtèrent en Suède.
 Itinéraire de Cripps et Clake : Danemark, Suède, Laponie, Finlande, Norvège, Uppsala, en 1800 à Saint-Pétersbourg, Sibérie, mer d'Azov, Circassie, Constantinople, en mars 1801 plaine de Troie, Rhodes, Chypre, en juillet 1801 Jérusalem, en octobre 1801 Athènes, Morée, Nord de la Grèce, Macédoine, Thessalie, en 1802 Constantinople, Paris, puis retour en Grande-Bretagne.
@@ -646,7 +666,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarke renvoya de Grèce soixante-seize caisses d'objets collectés (des antiquités dont la Cistophore d'Éleusis, un Pan, un Éros, des masques comiques, des bas-reliefs votifs et des pierres tombales, manuscrits, plantes et minéraux : 800 spécimens, 1 000 pièces de monnaie, vases grecs).
 Ses plus beaux trophées : la pierre tombale d'Euclide (qu'il croyait être celle du personnage historique), prise à Athènes, et la Cistophore d'Éleusis. Une partie de la collection fut perdue au cours d'un naufrage (nombreux manuscrits, échantillons et dessins de plantes).
@@ -679,7 +701,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le Rêveur, or, the Waking Visions of an Absent Man, 1796-1797.
 The Tomb of Alexander, or a Dissertation on the Sarcophagus brought from Alexandria, and now in the British Museum, 1805.
